--- a/Data_science_outputs_highlands/Graphs/Third/2/Montlhy_consumption_4.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/2/Montlhy_consumption_4.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14560.20843740001</v>
+        <v>8901.120848916677</v>
       </c>
       <c r="C2" t="n">
-        <v>8352.763193933342</v>
+        <v>6305.879380350008</v>
       </c>
       <c r="D2" t="n">
-        <v>3173.780120183333</v>
+        <v>499.4558335</v>
       </c>
       <c r="E2" t="n">
-        <v>2868.3623987</v>
+        <v>1817.224871833333</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13630.64098643334</v>
+        <v>8142.275008483342</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2956.857093083333</v>
+        <v>458.7184322</v>
       </c>
       <c r="E3" t="n">
-        <v>2656.65495205</v>
+        <v>1856.823669183334</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14621.93160038334</v>
+        <v>8894.689265650009</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3163.096560516667</v>
+        <v>509.5659630333333</v>
       </c>
       <c r="E4" t="n">
-        <v>2930.139011383333</v>
+        <v>2141.1354156</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14086.75247791668</v>
+        <v>8830.985759033343</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3068.565013066667</v>
+        <v>469.4829182666667</v>
       </c>
       <c r="E5" t="n">
-        <v>2724.316781616667</v>
+        <v>1993.38474085</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14402.95357381668</v>
+        <v>9204.498628383342</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3187.4584563</v>
+        <v>503.9180616166667</v>
       </c>
       <c r="E6" t="n">
-        <v>2986.372806633333</v>
+        <v>2024.0641937</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14102.25295353334</v>
+        <v>8573.522262900009</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3068.141679333333</v>
+        <v>496.81651675</v>
       </c>
       <c r="E7" t="n">
-        <v>2683.107513183334</v>
+        <v>1808.576425616667</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14360.46250313335</v>
+        <v>8892.529390366677</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3190.111561216667</v>
+        <v>500.9900993666667</v>
       </c>
       <c r="E8" t="n">
-        <v>2675.23389925</v>
+        <v>1925.740906683333</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14492.08368706668</v>
+        <v>8634.944759566677</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3182.050106583334</v>
+        <v>502.3844719</v>
       </c>
       <c r="E9" t="n">
-        <v>2857.5851248</v>
+        <v>1944.655568733333</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14301.96735508334</v>
+        <v>8784.789512416675</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3083.51928055</v>
+        <v>470.31947605</v>
       </c>
       <c r="E10" t="n">
-        <v>2639.85485585</v>
+        <v>1925.499781733333</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14501.95652046668</v>
+        <v>8992.48689040001</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3170.38973315</v>
+        <v>504.4549701666667</v>
       </c>
       <c r="E11" t="n">
-        <v>2536.0209446</v>
+        <v>1769.388099016667</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13955.23142736668</v>
+        <v>8737.024056516677</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3069.87008375</v>
+        <v>470.65181935</v>
       </c>
       <c r="E12" t="n">
-        <v>2649.637825266667</v>
+        <v>1978.948152483333</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14049.65349868334</v>
+        <v>8456.820531933343</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3064.281435883333</v>
+        <v>479.7421744166667</v>
       </c>
       <c r="E13" t="n">
-        <v>2829.922405883334</v>
+        <v>1968.72761945</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
